--- a/Test_Suite/settings_01.xlsx
+++ b/Test_Suite/settings_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525B4C5C-18DF-4CC3-87FD-B0EEF79B8552}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BC259C-B46E-42CA-8A34-48657A5FAD55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30336" yWindow="1536" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>CheckPoint</t>
   </si>
@@ -143,6 +143,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>EasyShellTest().resetEasyshell()</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,12 +532,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
+    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -542,31 +545,31 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -574,15 +577,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -590,6 +593,14 @@
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
